--- a/data/0006.xlsx
+++ b/data/0006.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1203"/>
+  <dimension ref="A1:I1204"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44291,6 +44291,43 @@
         </is>
       </c>
     </row>
+    <row r="1204">
+      <c r="A1204" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1204" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1204" t="inlineStr">
+        <is>
+          <t>0006</t>
+        </is>
+      </c>
+      <c r="D1204" t="inlineStr">
+        <is>
+          <t>PINEAPP</t>
+        </is>
+      </c>
+      <c r="E1204" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F1204" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G1204" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H1204" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I1204" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0006.xlsx
+++ b/data/0006.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1204"/>
+  <dimension ref="A1:I1205"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44328,6 +44328,43 @@
         </is>
       </c>
     </row>
+    <row r="1205">
+      <c r="A1205" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1205" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1205" t="inlineStr">
+        <is>
+          <t>0006</t>
+        </is>
+      </c>
+      <c r="D1205" t="inlineStr">
+        <is>
+          <t>PINEAPP</t>
+        </is>
+      </c>
+      <c r="E1205" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F1205" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G1205" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H1205" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I1205" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0006.xlsx
+++ b/data/0006.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1205"/>
+  <dimension ref="A1:I1206"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44365,6 +44365,43 @@
         </is>
       </c>
     </row>
+    <row r="1206">
+      <c r="A1206" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1206" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1206" t="inlineStr">
+        <is>
+          <t>0006</t>
+        </is>
+      </c>
+      <c r="D1206" t="inlineStr">
+        <is>
+          <t>PINEAPP</t>
+        </is>
+      </c>
+      <c r="E1206" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F1206" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G1206" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H1206" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I1206" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0006.xlsx
+++ b/data/0006.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1206"/>
+  <dimension ref="A1:I1207"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44402,6 +44402,43 @@
         </is>
       </c>
     </row>
+    <row r="1207">
+      <c r="A1207" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1207" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1207" t="inlineStr">
+        <is>
+          <t>0006</t>
+        </is>
+      </c>
+      <c r="D1207" t="inlineStr">
+        <is>
+          <t>PINEAPP</t>
+        </is>
+      </c>
+      <c r="E1207" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F1207" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G1207" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H1207" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I1207" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0006.xlsx
+++ b/data/0006.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1207"/>
+  <dimension ref="A1:I1208"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44439,6 +44439,43 @@
         </is>
       </c>
     </row>
+    <row r="1208">
+      <c r="A1208" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1208" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1208" t="inlineStr">
+        <is>
+          <t>0006</t>
+        </is>
+      </c>
+      <c r="D1208" t="inlineStr">
+        <is>
+          <t>PINEAPP</t>
+        </is>
+      </c>
+      <c r="E1208" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F1208" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G1208" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H1208" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I1208" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0006.xlsx
+++ b/data/0006.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1208"/>
+  <dimension ref="A1:I1209"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44476,6 +44476,41 @@
         </is>
       </c>
     </row>
+    <row r="1209">
+      <c r="A1209" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1209" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1209" t="inlineStr">
+        <is>
+          <t>0006</t>
+        </is>
+      </c>
+      <c r="D1209" t="inlineStr">
+        <is>
+          <t>PINEAPP</t>
+        </is>
+      </c>
+      <c r="E1209" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="F1209" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="G1209" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="H1209" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="I1209" t="n">
+        <v>5500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0006.xlsx
+++ b/data/0006.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1209"/>
+  <dimension ref="A1:I1210"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44511,6 +44511,41 @@
         <v>5500</v>
       </c>
     </row>
+    <row r="1210">
+      <c r="A1210" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1210" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1210" t="inlineStr">
+        <is>
+          <t>0006</t>
+        </is>
+      </c>
+      <c r="D1210" t="inlineStr">
+        <is>
+          <t>PINEAPP</t>
+        </is>
+      </c>
+      <c r="E1210" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="F1210" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="G1210" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="H1210" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="I1210" t="n">
+        <v>1500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0006.xlsx
+++ b/data/0006.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1210"/>
+  <dimension ref="A1:I1212"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44546,6 +44546,78 @@
         <v>1500</v>
       </c>
     </row>
+    <row r="1211">
+      <c r="A1211" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1211" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1211" t="inlineStr">
+        <is>
+          <t>0006</t>
+        </is>
+      </c>
+      <c r="D1211" t="inlineStr">
+        <is>
+          <t>PINEAPP</t>
+        </is>
+      </c>
+      <c r="E1211" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="F1211" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="G1211" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="H1211" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="I1211" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1212">
+      <c r="A1212" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1212" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1212" t="inlineStr">
+        <is>
+          <t>0006</t>
+        </is>
+      </c>
+      <c r="D1212" t="inlineStr">
+        <is>
+          <t>PINEAPP</t>
+        </is>
+      </c>
+      <c r="E1212" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="F1212" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="G1212" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="H1212" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="I1212" t="n">
+        <v>700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0006.xlsx
+++ b/data/0006.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1212"/>
+  <dimension ref="A1:I1214"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44618,6 +44618,78 @@
         <v>700</v>
       </c>
     </row>
+    <row r="1213">
+      <c r="A1213" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1213" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1213" t="inlineStr">
+        <is>
+          <t>0006</t>
+        </is>
+      </c>
+      <c r="D1213" t="inlineStr">
+        <is>
+          <t>PINEAPP</t>
+        </is>
+      </c>
+      <c r="E1213" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="F1213" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="G1213" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="H1213" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="I1213" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="1214">
+      <c r="A1214" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1214" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1214" t="inlineStr">
+        <is>
+          <t>0006</t>
+        </is>
+      </c>
+      <c r="D1214" t="inlineStr">
+        <is>
+          <t>PINEAPP</t>
+        </is>
+      </c>
+      <c r="E1214" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="F1214" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="G1214" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="H1214" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="I1214" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0006.xlsx
+++ b/data/0006.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1214"/>
+  <dimension ref="A1:I1215"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44690,6 +44690,43 @@
         </is>
       </c>
     </row>
+    <row r="1215">
+      <c r="A1215" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1215" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1215" t="inlineStr">
+        <is>
+          <t>0006</t>
+        </is>
+      </c>
+      <c r="D1215" t="inlineStr">
+        <is>
+          <t>PINEAPP</t>
+        </is>
+      </c>
+      <c r="E1215" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="F1215" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="G1215" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="H1215" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="I1215" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0006.xlsx
+++ b/data/0006.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1215"/>
+  <dimension ref="A1:I1216"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44727,6 +44727,43 @@
         </is>
       </c>
     </row>
+    <row r="1216">
+      <c r="A1216" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1216" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1216" t="inlineStr">
+        <is>
+          <t>0006</t>
+        </is>
+      </c>
+      <c r="D1216" t="inlineStr">
+        <is>
+          <t>PINEAPP</t>
+        </is>
+      </c>
+      <c r="E1216" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="F1216" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="G1216" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="H1216" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="I1216" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0006.xlsx
+++ b/data/0006.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1216"/>
+  <dimension ref="A1:I1217"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44764,6 +44764,43 @@
         </is>
       </c>
     </row>
+    <row r="1217">
+      <c r="A1217" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1217" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1217" t="inlineStr">
+        <is>
+          <t>0006</t>
+        </is>
+      </c>
+      <c r="D1217" t="inlineStr">
+        <is>
+          <t>PINEAPP</t>
+        </is>
+      </c>
+      <c r="E1217" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="F1217" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="G1217" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="H1217" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="I1217" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0006.xlsx
+++ b/data/0006.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44801,6 +44801,41 @@
         </is>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>0006</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>PINEAPP</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0006.xlsx
+++ b/data/0006.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44836,6 +44836,78 @@
         <v>100</v>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>0006</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>PINEAPP</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>4100</v>
+      </c>
+    </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>0006</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>PINEAPP</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="I1220" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0006.xlsx
+++ b/data/0006.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44908,6 +44908,43 @@
         </is>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>0006</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>PINEAPP</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="I1221" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0006.xlsx
+++ b/data/0006.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44945,6 +44945,43 @@
         </is>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>0006</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>PINEAPP</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="I1222" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0006.xlsx
+++ b/data/0006.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1520"/>
+  <dimension ref="A1:I1521"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55412,6 +55412,41 @@
         </is>
       </c>
     </row>
+    <row r="1521">
+      <c r="A1521" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B1521" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C1521" t="inlineStr">
+        <is>
+          <t>0006</t>
+        </is>
+      </c>
+      <c r="D1521" t="inlineStr">
+        <is>
+          <t>PINEAPP</t>
+        </is>
+      </c>
+      <c r="E1521" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="F1521" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="G1521" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="H1521" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="I1521" t="n">
+        <v>2000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0006.xlsx
+++ b/data/0006.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1521"/>
+  <dimension ref="A1:I1522"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55447,6 +55447,43 @@
         <v>2000</v>
       </c>
     </row>
+    <row r="1522">
+      <c r="A1522" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B1522" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C1522" t="inlineStr">
+        <is>
+          <t>0006</t>
+        </is>
+      </c>
+      <c r="D1522" t="inlineStr">
+        <is>
+          <t>PINEAPP</t>
+        </is>
+      </c>
+      <c r="E1522" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="F1522" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="G1522" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="H1522" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="I1522" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0006.xlsx
+++ b/data/0006.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1522"/>
+  <dimension ref="A1:I1523"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55484,6 +55484,43 @@
         </is>
       </c>
     </row>
+    <row r="1523">
+      <c r="A1523" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B1523" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C1523" t="inlineStr">
+        <is>
+          <t>0006</t>
+        </is>
+      </c>
+      <c r="D1523" t="inlineStr">
+        <is>
+          <t>PINEAPP</t>
+        </is>
+      </c>
+      <c r="E1523" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="F1523" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="G1523" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="H1523" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="I1523" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0006.xlsx
+++ b/data/0006.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1523"/>
+  <dimension ref="A1:I1524"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55521,6 +55521,43 @@
         </is>
       </c>
     </row>
+    <row r="1524">
+      <c r="A1524" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B1524" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C1524" t="inlineStr">
+        <is>
+          <t>0006</t>
+        </is>
+      </c>
+      <c r="D1524" t="inlineStr">
+        <is>
+          <t>PINEAPP</t>
+        </is>
+      </c>
+      <c r="E1524" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="F1524" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="G1524" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="H1524" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="I1524" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0006.xlsx
+++ b/data/0006.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1524"/>
+  <dimension ref="A1:I1525"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55558,6 +55558,41 @@
         </is>
       </c>
     </row>
+    <row r="1525">
+      <c r="A1525" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B1525" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C1525" t="inlineStr">
+        <is>
+          <t>0006</t>
+        </is>
+      </c>
+      <c r="D1525" t="inlineStr">
+        <is>
+          <t>PINEAPP</t>
+        </is>
+      </c>
+      <c r="E1525" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F1525" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="G1525" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H1525" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="I1525" t="n">
+        <v>4900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0006.xlsx
+++ b/data/0006.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1525"/>
+  <dimension ref="A1:I1526"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55593,6 +55593,43 @@
         <v>4900</v>
       </c>
     </row>
+    <row r="1526">
+      <c r="A1526" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B1526" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C1526" t="inlineStr">
+        <is>
+          <t>0006</t>
+        </is>
+      </c>
+      <c r="D1526" t="inlineStr">
+        <is>
+          <t>PINEAPP</t>
+        </is>
+      </c>
+      <c r="E1526" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="F1526" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="G1526" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="H1526" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="I1526" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0006.xlsx
+++ b/data/0006.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1526"/>
+  <dimension ref="A1:I1527"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55630,6 +55630,43 @@
         </is>
       </c>
     </row>
+    <row r="1527">
+      <c r="A1527" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B1527" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C1527" t="inlineStr">
+        <is>
+          <t>0006</t>
+        </is>
+      </c>
+      <c r="D1527" t="inlineStr">
+        <is>
+          <t>PINEAPP</t>
+        </is>
+      </c>
+      <c r="E1527" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="F1527" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="G1527" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="H1527" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="I1527" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0006.xlsx
+++ b/data/0006.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1527"/>
+  <dimension ref="A1:I1528"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55667,6 +55667,41 @@
         </is>
       </c>
     </row>
+    <row r="1528">
+      <c r="A1528" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B1528" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C1528" t="inlineStr">
+        <is>
+          <t>0006</t>
+        </is>
+      </c>
+      <c r="D1528" t="inlineStr">
+        <is>
+          <t>PINEAPP</t>
+        </is>
+      </c>
+      <c r="E1528" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="F1528" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="G1528" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="H1528" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="I1528" t="n">
+        <v>5100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0006.xlsx
+++ b/data/0006.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1528"/>
+  <dimension ref="A1:I1529"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55702,6 +55702,41 @@
         <v>5100</v>
       </c>
     </row>
+    <row r="1529">
+      <c r="A1529" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B1529" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C1529" t="inlineStr">
+        <is>
+          <t>0006</t>
+        </is>
+      </c>
+      <c r="D1529" t="inlineStr">
+        <is>
+          <t>PINEAPP</t>
+        </is>
+      </c>
+      <c r="E1529" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="F1529" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="G1529" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="H1529" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="I1529" t="n">
+        <v>5400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0006.xlsx
+++ b/data/0006.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1529"/>
+  <dimension ref="A1:I1530"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55737,6 +55737,43 @@
         <v>5400</v>
       </c>
     </row>
+    <row r="1530">
+      <c r="A1530" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B1530" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C1530" t="inlineStr">
+        <is>
+          <t>0006</t>
+        </is>
+      </c>
+      <c r="D1530" t="inlineStr">
+        <is>
+          <t>PINEAPP</t>
+        </is>
+      </c>
+      <c r="E1530" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="F1530" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="G1530" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="H1530" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="I1530" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0006.xlsx
+++ b/data/0006.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1530"/>
+  <dimension ref="A1:I1531"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55774,6 +55774,43 @@
         </is>
       </c>
     </row>
+    <row r="1531">
+      <c r="A1531" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B1531" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C1531" t="inlineStr">
+        <is>
+          <t>0006</t>
+        </is>
+      </c>
+      <c r="D1531" t="inlineStr">
+        <is>
+          <t>PINEAPP</t>
+        </is>
+      </c>
+      <c r="E1531" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="F1531" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="G1531" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="H1531" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="I1531" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0006.xlsx
+++ b/data/0006.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2285"/>
+  <dimension ref="A1:I2286"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82201,6 +82201,43 @@
         </is>
       </c>
     </row>
+    <row r="2286">
+      <c r="A2286" t="n">
+        <v>1586131200</v>
+      </c>
+      <c r="B2286" t="inlineStr">
+        <is>
+          <t>2020-04-06</t>
+        </is>
+      </c>
+      <c r="C2286" t="inlineStr">
+        <is>
+          <t>0006</t>
+        </is>
+      </c>
+      <c r="D2286" t="inlineStr">
+        <is>
+          <t>PINEAPP</t>
+        </is>
+      </c>
+      <c r="E2286" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="F2286" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="G2286" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="H2286" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="I2286" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0006.xlsx
+++ b/data/0006.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2286"/>
+  <dimension ref="A1:I2287"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82238,6 +82238,41 @@
         </is>
       </c>
     </row>
+    <row r="2287">
+      <c r="A2287" t="n">
+        <v>1586217600</v>
+      </c>
+      <c r="B2287" t="inlineStr">
+        <is>
+          <t>2020-04-07</t>
+        </is>
+      </c>
+      <c r="C2287" t="inlineStr">
+        <is>
+          <t>0006</t>
+        </is>
+      </c>
+      <c r="D2287" t="inlineStr">
+        <is>
+          <t>PINEAPP</t>
+        </is>
+      </c>
+      <c r="E2287" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F2287" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="G2287" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H2287" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="I2287" t="n">
+        <v>40000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0006.xlsx
+++ b/data/0006.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2287"/>
+  <dimension ref="A1:I2288"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82273,6 +82273,43 @@
         <v>40000</v>
       </c>
     </row>
+    <row r="2288">
+      <c r="A2288" t="n">
+        <v>1586304000</v>
+      </c>
+      <c r="B2288" t="inlineStr">
+        <is>
+          <t>2020-04-08</t>
+        </is>
+      </c>
+      <c r="C2288" t="inlineStr">
+        <is>
+          <t>0006</t>
+        </is>
+      </c>
+      <c r="D2288" t="inlineStr">
+        <is>
+          <t>PINEAPP</t>
+        </is>
+      </c>
+      <c r="E2288" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="F2288" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="G2288" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="H2288" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="I2288" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0006.xlsx
+++ b/data/0006.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2288"/>
+  <dimension ref="A1:I2289"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82310,6 +82310,43 @@
         </is>
       </c>
     </row>
+    <row r="2289">
+      <c r="A2289" t="n">
+        <v>1586390400</v>
+      </c>
+      <c r="B2289" t="inlineStr">
+        <is>
+          <t>2020-04-09</t>
+        </is>
+      </c>
+      <c r="C2289" t="inlineStr">
+        <is>
+          <t>0006</t>
+        </is>
+      </c>
+      <c r="D2289" t="inlineStr">
+        <is>
+          <t>PINEAPP</t>
+        </is>
+      </c>
+      <c r="E2289" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="F2289" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="G2289" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="H2289" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="I2289" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0006.xlsx
+++ b/data/0006.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2289"/>
+  <dimension ref="A1:I2290"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82347,6 +82347,43 @@
         </is>
       </c>
     </row>
+    <row r="2290">
+      <c r="A2290" t="n">
+        <v>1586476800</v>
+      </c>
+      <c r="B2290" t="inlineStr">
+        <is>
+          <t>2020-04-10</t>
+        </is>
+      </c>
+      <c r="C2290" t="inlineStr">
+        <is>
+          <t>0006</t>
+        </is>
+      </c>
+      <c r="D2290" t="inlineStr">
+        <is>
+          <t>PINEAPP</t>
+        </is>
+      </c>
+      <c r="E2290" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="F2290" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="G2290" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="H2290" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="I2290" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0006.xlsx
+++ b/data/0006.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2290"/>
+  <dimension ref="A1:I2291"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82384,6 +82384,41 @@
         </is>
       </c>
     </row>
+    <row r="2291">
+      <c r="A2291" t="n">
+        <v>1586908800</v>
+      </c>
+      <c r="B2291" t="inlineStr">
+        <is>
+          <t>2020-04-15</t>
+        </is>
+      </c>
+      <c r="C2291" t="inlineStr">
+        <is>
+          <t>0006</t>
+        </is>
+      </c>
+      <c r="D2291" t="inlineStr">
+        <is>
+          <t>PINEAPP</t>
+        </is>
+      </c>
+      <c r="E2291" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="F2291" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G2291" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="H2291" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I2291" t="n">
+        <v>8600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0006.xlsx
+++ b/data/0006.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2291"/>
+  <dimension ref="A1:I2292"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82419,6 +82419,43 @@
         <v>8600</v>
       </c>
     </row>
+    <row r="2292">
+      <c r="A2292" t="n">
+        <v>1587081600</v>
+      </c>
+      <c r="B2292" t="inlineStr">
+        <is>
+          <t>2020-04-17</t>
+        </is>
+      </c>
+      <c r="C2292" t="inlineStr">
+        <is>
+          <t>0006</t>
+        </is>
+      </c>
+      <c r="D2292" t="inlineStr">
+        <is>
+          <t>PINEAPP</t>
+        </is>
+      </c>
+      <c r="E2292" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F2292" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G2292" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H2292" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I2292" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0006.xlsx
+++ b/data/0006.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2292"/>
+  <dimension ref="A1:I2293"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82456,6 +82456,43 @@
         </is>
       </c>
     </row>
+    <row r="2293">
+      <c r="A2293" t="n">
+        <v>1587340800</v>
+      </c>
+      <c r="B2293" t="inlineStr">
+        <is>
+          <t>2020-04-20</t>
+        </is>
+      </c>
+      <c r="C2293" t="inlineStr">
+        <is>
+          <t>0006</t>
+        </is>
+      </c>
+      <c r="D2293" t="inlineStr">
+        <is>
+          <t>PINEAPP</t>
+        </is>
+      </c>
+      <c r="E2293" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F2293" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G2293" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H2293" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I2293" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0006.xlsx
+++ b/data/0006.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2293"/>
+  <dimension ref="A1:I2294"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82493,6 +82493,43 @@
         </is>
       </c>
     </row>
+    <row r="2294">
+      <c r="A2294" t="n">
+        <v>1587513600</v>
+      </c>
+      <c r="B2294" t="inlineStr">
+        <is>
+          <t>2020-04-22</t>
+        </is>
+      </c>
+      <c r="C2294" t="inlineStr">
+        <is>
+          <t>0006</t>
+        </is>
+      </c>
+      <c r="D2294" t="inlineStr">
+        <is>
+          <t>PINEAPP</t>
+        </is>
+      </c>
+      <c r="E2294" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F2294" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G2294" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H2294" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I2294" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0006.xlsx
+++ b/data/0006.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2294"/>
+  <dimension ref="A1:I2296"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82530,6 +82530,78 @@
         </is>
       </c>
     </row>
+    <row r="2295">
+      <c r="A2295" t="n">
+        <v>1587600000</v>
+      </c>
+      <c r="B2295" t="inlineStr">
+        <is>
+          <t>2020-04-23</t>
+        </is>
+      </c>
+      <c r="C2295" t="inlineStr">
+        <is>
+          <t>0006</t>
+        </is>
+      </c>
+      <c r="D2295" t="inlineStr">
+        <is>
+          <t>PINEAPP</t>
+        </is>
+      </c>
+      <c r="E2295" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F2295" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G2295" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H2295" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I2295" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="2296">
+      <c r="A2296" t="n">
+        <v>1587945600</v>
+      </c>
+      <c r="B2296" t="inlineStr">
+        <is>
+          <t>2020-04-27</t>
+        </is>
+      </c>
+      <c r="C2296" t="inlineStr">
+        <is>
+          <t>0006</t>
+        </is>
+      </c>
+      <c r="D2296" t="inlineStr">
+        <is>
+          <t>PINEAPP</t>
+        </is>
+      </c>
+      <c r="E2296" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="F2296" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G2296" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="H2296" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I2296" t="n">
+        <v>7000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0006.xlsx
+++ b/data/0006.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2296"/>
+  <dimension ref="A1:I2297"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82602,6 +82602,43 @@
         <v>7000</v>
       </c>
     </row>
+    <row r="2297">
+      <c r="A2297" t="n">
+        <v>1588032000</v>
+      </c>
+      <c r="B2297" t="inlineStr">
+        <is>
+          <t>2020-04-28</t>
+        </is>
+      </c>
+      <c r="C2297" t="inlineStr">
+        <is>
+          <t>0006</t>
+        </is>
+      </c>
+      <c r="D2297" t="inlineStr">
+        <is>
+          <t>PINEAPP</t>
+        </is>
+      </c>
+      <c r="E2297" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F2297" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G2297" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H2297" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I2297" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0006.xlsx
+++ b/data/0006.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2297"/>
+  <dimension ref="A1:I2298"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82639,6 +82639,43 @@
         </is>
       </c>
     </row>
+    <row r="2298">
+      <c r="A2298" t="n">
+        <v>1588118400</v>
+      </c>
+      <c r="B2298" t="inlineStr">
+        <is>
+          <t>2020-04-29</t>
+        </is>
+      </c>
+      <c r="C2298" t="inlineStr">
+        <is>
+          <t>0006</t>
+        </is>
+      </c>
+      <c r="D2298" t="inlineStr">
+        <is>
+          <t>PINEAPP</t>
+        </is>
+      </c>
+      <c r="E2298" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F2298" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G2298" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H2298" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I2298" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0006.xlsx
+++ b/data/0006.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2298"/>
+  <dimension ref="A1:I2301"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82676,6 +82676,115 @@
         </is>
       </c>
     </row>
+    <row r="2299">
+      <c r="A2299" t="n">
+        <v>1588204800</v>
+      </c>
+      <c r="B2299" t="inlineStr">
+        <is>
+          <t>2020-04-30</t>
+        </is>
+      </c>
+      <c r="C2299" t="inlineStr">
+        <is>
+          <t>0006</t>
+        </is>
+      </c>
+      <c r="D2299" t="inlineStr">
+        <is>
+          <t>PINEAPP</t>
+        </is>
+      </c>
+      <c r="E2299" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="F2299" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G2299" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="H2299" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I2299" t="n">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="2300">
+      <c r="A2300" t="n">
+        <v>1588550400</v>
+      </c>
+      <c r="B2300" t="inlineStr">
+        <is>
+          <t>2020-05-04</t>
+        </is>
+      </c>
+      <c r="C2300" t="inlineStr">
+        <is>
+          <t>0006</t>
+        </is>
+      </c>
+      <c r="D2300" t="inlineStr">
+        <is>
+          <t>PINEAPP</t>
+        </is>
+      </c>
+      <c r="E2300" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F2300" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G2300" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H2300" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I2300" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="2301">
+      <c r="A2301" t="n">
+        <v>1588636800</v>
+      </c>
+      <c r="B2301" t="inlineStr">
+        <is>
+          <t>2020-05-05</t>
+        </is>
+      </c>
+      <c r="C2301" t="inlineStr">
+        <is>
+          <t>0006</t>
+        </is>
+      </c>
+      <c r="D2301" t="inlineStr">
+        <is>
+          <t>PINEAPP</t>
+        </is>
+      </c>
+      <c r="E2301" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F2301" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G2301" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H2301" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I2301" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
